--- a/业务文档/减脂营/需求文档和用例/餐打卡反馈1.0.3/20180701 餐打卡反馈话术 toIT1.xlsx
+++ b/业务文档/减脂营/需求文档和用例/餐打卡反馈1.0.3/20180701 餐打卡反馈话术 toIT1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CDQ/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshengfei/gitmulu/githab/Test_Group/业务文档/减脂营/需求文档和用例/餐打卡反馈1.0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB8E16-C999-7A42-A149-59E1ED0494A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3120" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -24,10 +25,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'附录（对应的餐点评标签）'!$C$2:$C$21</definedName>
     <definedName name="OLE_LINK1" localSheetId="2">'附录（对应的餐点评标签）'!$D$37</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="878">
   <si>
     <t>原标签名</t>
     <rPh sb="0" eb="1">
@@ -4295,12 +4302,16 @@
     <t>亲爱的，在饮食安排或打卡过程中是遇到什么困难了？有任何问题直接联系教练帮忙啦~咱们合理地把控膳食热量摄入，对于减脂的帮助不可小觑哦。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4738,10 +4749,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="161">
@@ -5182,46 +5193,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5234,7 +5245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="85" workbookViewId="0">
@@ -5242,7 +5253,7 @@
       <selection pane="bottomLeft" activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="31"/>
     <col min="4" max="4" width="24.33203125" style="31" customWidth="1"/>
@@ -5256,7 +5267,7 @@
     <col min="19" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="68">
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
@@ -5346,7 +5357,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="289">
       <c r="A2" s="31" t="s">
         <v>72</v>
       </c>
@@ -5408,7 +5419,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="306">
       <c r="A3" s="31" t="s">
         <v>72</v>
       </c>
@@ -5470,7 +5481,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="306">
       <c r="A4" s="31" t="s">
         <v>72</v>
       </c>
@@ -5535,7 +5546,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="306">
       <c r="A5" s="31" t="s">
         <v>72</v>
       </c>
@@ -5600,7 +5611,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="304" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="323">
       <c r="A6" s="31" t="s">
         <v>72</v>
       </c>
@@ -5665,7 +5676,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="304" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="323">
       <c r="A7" s="31" t="s">
         <v>72</v>
       </c>
@@ -5730,7 +5741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="304" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="323">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -5795,7 +5806,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="336" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="356">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -5860,7 +5871,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="306">
       <c r="A10" s="31" t="s">
         <v>72</v>
       </c>
@@ -5925,7 +5936,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="289">
       <c r="A11" s="31" t="s">
         <v>72</v>
       </c>
@@ -5990,7 +6001,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="256" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="272">
       <c r="A12" s="31" t="s">
         <v>72</v>
       </c>
@@ -6055,7 +6066,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="240" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="255">
       <c r="A13" s="31" t="s">
         <v>72</v>
       </c>
@@ -6120,7 +6131,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="289">
       <c r="A14" s="31" t="s">
         <v>71</v>
       </c>
@@ -6185,7 +6196,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="304" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="323">
       <c r="A15" s="31" t="s">
         <v>71</v>
       </c>
@@ -6250,7 +6261,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="306">
       <c r="A16" s="31" t="s">
         <v>71</v>
       </c>
@@ -6312,7 +6323,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="272" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="289">
       <c r="A17" s="31" t="s">
         <v>71</v>
       </c>
@@ -6374,7 +6385,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="15.5" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>71</v>
       </c>
@@ -6439,7 +6450,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="15.5" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>71</v>
       </c>
@@ -6504,7 +6515,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="15.5" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>71</v>
       </c>
@@ -6566,7 +6577,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="15.5" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>71</v>
       </c>
@@ -6628,7 +6639,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="336" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="356">
       <c r="A22" s="31" t="s">
         <v>71</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="272" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="289">
       <c r="A23" s="31" t="s">
         <v>71</v>
       </c>
@@ -6758,7 +6769,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="272" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="289">
       <c r="A24" s="31" t="s">
         <v>71</v>
       </c>
@@ -6823,7 +6834,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="336" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="356">
       <c r="A25" s="31" t="s">
         <v>71</v>
       </c>
@@ -6888,7 +6899,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="240" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="255">
       <c r="A26" s="31" t="s">
         <v>71</v>
       </c>
@@ -6953,7 +6964,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="288" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="289">
       <c r="A27" s="31" t="s">
         <v>71</v>
       </c>
@@ -7018,7 +7029,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="368" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="388">
       <c r="A28" s="31" t="s">
         <v>71</v>
       </c>
@@ -7083,7 +7094,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="288" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="306">
       <c r="A29" s="31" t="s">
         <v>71</v>
       </c>
@@ -7148,7 +7159,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="320" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="340">
       <c r="A30" s="31" t="s">
         <v>71</v>
       </c>
@@ -7213,7 +7224,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="304" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="323">
       <c r="A31" s="31" t="s">
         <v>71</v>
       </c>
@@ -7278,7 +7289,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="304" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="323">
       <c r="A32" s="31" t="s">
         <v>89</v>
       </c>
@@ -7343,7 +7354,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="304" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="323">
       <c r="A33" s="31" t="s">
         <v>71</v>
       </c>
@@ -7408,7 +7419,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="289">
       <c r="A34" s="31" t="s">
         <v>71</v>
       </c>
@@ -7473,7 +7484,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="289">
       <c r="A35" s="31" t="s">
         <v>71</v>
       </c>
@@ -7538,7 +7549,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="256" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="272">
       <c r="A36" s="31" t="s">
         <v>71</v>
       </c>
@@ -7600,7 +7611,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="320" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="340">
       <c r="A37" s="31" t="s">
         <v>92</v>
       </c>
@@ -7665,7 +7676,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="306">
       <c r="A38" s="31" t="s">
         <v>71</v>
       </c>
@@ -7730,7 +7741,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="320" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="340">
       <c r="A39" s="31" t="s">
         <v>79</v>
       </c>
@@ -7792,7 +7803,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="289">
       <c r="A40" s="31" t="s">
         <v>79</v>
       </c>
@@ -7854,7 +7865,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="304" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="323">
       <c r="A41" s="31" t="s">
         <v>86</v>
       </c>
@@ -7916,7 +7927,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="289">
       <c r="A42" s="31" t="s">
         <v>88</v>
       </c>
@@ -7978,7 +7989,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="308" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="308" customHeight="1">
       <c r="A43" s="31" t="s">
         <v>116</v>
       </c>
@@ -7997,46 +8008,46 @@
       <c r="G43" s="31">
         <v>4</v>
       </c>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="41" t="s">
         <v>753</v>
       </c>
-      <c r="I43" s="42" t="s">
+      <c r="I43" s="41" t="s">
         <v>753</v>
       </c>
-      <c r="J43" s="41" t="s">
+      <c r="J43" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="L43" s="42" t="s">
+      <c r="L43" s="41" t="s">
         <v>751</v>
       </c>
-      <c r="M43" s="42" t="s">
+      <c r="M43" s="41" t="s">
         <v>751</v>
       </c>
-      <c r="N43" s="42" t="s">
+      <c r="N43" s="41" t="s">
         <v>752</v>
       </c>
-      <c r="O43" s="42" t="s">
+      <c r="O43" s="41" t="s">
         <v>752</v>
       </c>
-      <c r="P43" s="42" t="s">
+      <c r="P43" s="41" t="s">
         <v>754</v>
       </c>
-      <c r="Q43" s="42" t="s">
+      <c r="Q43" s="41" t="s">
         <v>754</v>
       </c>
-      <c r="R43" s="42" t="s">
+      <c r="R43" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="S43" s="42" t="s">
+      <c r="S43" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="T43" s="42" t="s">
+      <c r="T43" s="41" t="s">
         <v>756</v>
       </c>
-      <c r="U43" s="42" t="s">
+      <c r="U43" s="41" t="s">
         <v>756</v>
       </c>
       <c r="V43" s="31" t="s">
@@ -8061,7 +8072,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="308" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="308" customHeight="1">
       <c r="A44" s="31" t="s">
         <v>131</v>
       </c>
@@ -8083,46 +8094,46 @@
       <c r="G44" s="31">
         <v>0</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="41" t="s">
         <v>769</v>
       </c>
-      <c r="I44" s="42" t="s">
+      <c r="I44" s="41" t="s">
         <v>769</v>
       </c>
-      <c r="J44" s="42" t="s">
+      <c r="J44" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="K44" s="42" t="s">
+      <c r="K44" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="41" t="s">
         <v>766</v>
       </c>
-      <c r="M44" s="42" t="s">
+      <c r="M44" s="41" t="s">
         <v>765</v>
       </c>
-      <c r="N44" s="42" t="s">
+      <c r="N44" s="41" t="s">
         <v>768</v>
       </c>
-      <c r="O44" s="42" t="s">
+      <c r="O44" s="41" t="s">
         <v>768</v>
       </c>
-      <c r="P44" s="42" t="s">
+      <c r="P44" s="41" t="s">
         <v>770</v>
       </c>
-      <c r="Q44" s="42" t="s">
+      <c r="Q44" s="41" t="s">
         <v>770</v>
       </c>
-      <c r="R44" s="42" t="s">
+      <c r="R44" s="41" t="s">
         <v>771</v>
       </c>
-      <c r="S44" s="42" t="s">
+      <c r="S44" s="41" t="s">
         <v>771</v>
       </c>
-      <c r="T44" s="42" t="s">
+      <c r="T44" s="41" t="s">
         <v>772</v>
       </c>
-      <c r="U44" s="42" t="s">
+      <c r="U44" s="41" t="s">
         <v>772</v>
       </c>
       <c r="V44" s="31" t="s">
@@ -8163,7 +8174,7 @@
       </c>
       <c r="AH44" s="32"/>
     </row>
-    <row r="45" spans="1:34" ht="409" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="409.6">
       <c r="A45" s="32" t="s">
         <v>783</v>
       </c>
@@ -8185,46 +8196,46 @@
       <c r="G45" s="31">
         <v>0</v>
       </c>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="41" t="s">
         <v>769</v>
       </c>
-      <c r="I45" s="42" t="s">
+      <c r="I45" s="41" t="s">
         <v>769</v>
       </c>
-      <c r="J45" s="42" t="s">
+      <c r="J45" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="K45" s="42" t="s">
+      <c r="K45" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="L45" s="42" t="s">
+      <c r="L45" s="41" t="s">
         <v>766</v>
       </c>
-      <c r="M45" s="42" t="s">
+      <c r="M45" s="41" t="s">
         <v>765</v>
       </c>
-      <c r="N45" s="42" t="s">
+      <c r="N45" s="41" t="s">
         <v>768</v>
       </c>
-      <c r="O45" s="42" t="s">
+      <c r="O45" s="41" t="s">
         <v>768</v>
       </c>
-      <c r="P45" s="42" t="s">
+      <c r="P45" s="41" t="s">
         <v>770</v>
       </c>
-      <c r="Q45" s="42" t="s">
+      <c r="Q45" s="41" t="s">
         <v>770</v>
       </c>
-      <c r="R45" s="42" t="s">
+      <c r="R45" s="41" t="s">
         <v>771</v>
       </c>
-      <c r="S45" s="42" t="s">
+      <c r="S45" s="41" t="s">
         <v>771</v>
       </c>
-      <c r="T45" s="42" t="s">
+      <c r="T45" s="41" t="s">
         <v>772</v>
       </c>
-      <c r="U45" s="42" t="s">
+      <c r="U45" s="41" t="s">
         <v>772</v>
       </c>
       <c r="V45" s="31" t="s">
@@ -8269,6 +8280,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
@@ -8285,18 +8308,6 @@
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8305,7 +8316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="140" workbookViewId="0">
@@ -8315,7 +8326,7 @@
       <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
@@ -8327,7 +8338,7 @@
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8353,7 +8364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="25" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -8376,7 +8387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -8399,7 +8410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -8422,7 +8433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -8442,7 +8453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -8462,7 +8473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="25" customFormat="1">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -8482,7 +8493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="25" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
@@ -8502,7 +8513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -8522,7 +8533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -8542,7 +8553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="25" customFormat="1">
       <c r="A11" s="22" t="s">
         <v>30</v>
       </c>
@@ -8562,7 +8573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="25" customFormat="1">
       <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
@@ -8582,7 +8593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="7">
         <v>14</v>
@@ -8600,7 +8611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="7">
         <v>15</v>
@@ -8618,7 +8629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="7">
         <v>20</v>
@@ -8636,7 +8647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="7">
         <v>19</v>
@@ -8654,7 +8665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="25" customFormat="1">
       <c r="A17" s="26"/>
       <c r="B17" s="23">
         <v>28</v>
@@ -8672,7 +8683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="7">
         <v>25</v>
@@ -8690,7 +8701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="9"/>
       <c r="B19" s="7">
         <v>24</v>
@@ -8708,7 +8719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="25" customFormat="1">
       <c r="A20" s="22" t="s">
         <v>47</v>
       </c>
@@ -8728,7 +8739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="25" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>49</v>
       </c>
@@ -8748,7 +8759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="12"/>
       <c r="B22" s="7">
         <v>31</v>
@@ -8766,7 +8777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="9"/>
       <c r="B23" s="7">
         <v>32</v>
@@ -8784,7 +8795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="12"/>
       <c r="B24" s="7">
         <v>33</v>
@@ -8802,7 +8813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="12"/>
       <c r="B25" s="7">
         <v>34</v>
@@ -8820,7 +8831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="12"/>
       <c r="B26" s="7">
         <v>35</v>
@@ -8838,7 +8849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="12"/>
       <c r="B27" s="7">
         <v>36</v>
@@ -8856,7 +8867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="25" customFormat="1" ht="17">
       <c r="A28" s="28"/>
       <c r="B28" s="23">
         <v>42</v>
@@ -8874,13 +8885,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -8889,7 +8900,7 @@
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="1" customFormat="1">
       <c r="A31" s="15" t="s">
         <v>65</v>
       </c>
@@ -8900,7 +8911,7 @@
       </c>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
         <v>67</v>
       </c>
@@ -8911,31 +8922,31 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="7"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="7"/>
       <c r="C35" s="19"/>
       <c r="D35" s="10"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="E36">
         <f>16/1.5*0.3</f>
         <v>3.1999999999999997</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="D37" s="20"/>
       <c r="E37">
         <f>E36*2</f>
@@ -8945,7 +8956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="D38" s="21"/>
       <c r="E38">
         <v>4</v>
@@ -8960,7 +8971,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="D39" s="21"/>
       <c r="E39">
         <v>4</v>
@@ -8975,7 +8986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="D40" s="21"/>
       <c r="E40">
         <v>8</v>
@@ -8987,13 +8998,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="D43" s="21"/>
     </row>
   </sheetData>
@@ -9004,7 +9015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -9014,7 +9025,7 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
@@ -9022,7 +9033,7 @@
     <col min="9" max="9" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="85">
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
@@ -9048,7 +9059,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="32" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>72</v>
       </c>
@@ -9075,7 +9086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="68">
       <c r="A3" s="31" t="s">
         <v>72</v>
       </c>
@@ -9102,7 +9113,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="32" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>72</v>
       </c>
@@ -9129,7 +9140,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="68">
       <c r="A5" s="31" t="s">
         <v>72</v>
       </c>
@@ -9156,7 +9167,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="32" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>72</v>
       </c>
@@ -9183,7 +9194,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="68">
       <c r="A7" s="31" t="s">
         <v>72</v>
       </c>
@@ -9210,7 +9221,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="32" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -9237,7 +9248,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="68">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -9264,7 +9275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="32" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>72</v>
       </c>
@@ -9291,7 +9302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="68">
       <c r="A11" s="31" t="s">
         <v>72</v>
       </c>
@@ -9318,7 +9329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="32" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>72</v>
       </c>
@@ -9345,7 +9356,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="68">
       <c r="A13" s="31" t="s">
         <v>72</v>
       </c>
@@ -9372,7 +9383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="32" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>72</v>
       </c>
@@ -9399,7 +9410,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="68">
       <c r="A15" s="31" t="s">
         <v>72</v>
       </c>
@@ -9426,7 +9437,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="32" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>72</v>
       </c>
@@ -9455,7 +9466,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="153">
       <c r="A17" s="31" t="s">
         <v>72</v>
       </c>
@@ -9484,7 +9495,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="48" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>72</v>
       </c>
@@ -9513,7 +9524,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="153">
       <c r="A19" s="31" t="s">
         <v>72</v>
       </c>
@@ -9542,7 +9553,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="32" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>72</v>
       </c>
@@ -9571,7 +9582,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="153">
       <c r="A21" s="31" t="s">
         <v>72</v>
       </c>
@@ -9600,7 +9611,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="32" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>72</v>
       </c>
@@ -9629,7 +9640,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="153">
       <c r="A23" s="31" t="s">
         <v>72</v>
       </c>
@@ -9658,7 +9669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="32" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>72</v>
       </c>
@@ -9687,7 +9698,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="32" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>72</v>
       </c>
@@ -9716,7 +9727,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="48" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>72</v>
       </c>
@@ -9745,7 +9756,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="48" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>72</v>
       </c>
@@ -9774,7 +9785,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>72</v>
       </c>
@@ -9803,7 +9814,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="32" customHeight="1">
       <c r="A29" s="31" t="s">
         <v>72</v>
       </c>
@@ -9832,7 +9843,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="272" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>72</v>
       </c>
@@ -9861,7 +9872,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="272" customHeight="1">
       <c r="A31" s="31" t="s">
         <v>72</v>
       </c>
@@ -9890,7 +9901,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="48" customHeight="1">
       <c r="A32" s="31" t="s">
         <v>72</v>
       </c>
@@ -9919,7 +9930,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="153">
       <c r="A33" s="31" t="s">
         <v>72</v>
       </c>
@@ -9948,7 +9959,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="32" customHeight="1">
       <c r="A34" s="31" t="s">
         <v>72</v>
       </c>
@@ -9977,7 +9988,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="153">
       <c r="A35" s="31" t="s">
         <v>72</v>
       </c>
@@ -10006,7 +10017,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="32" customHeight="1">
       <c r="A36" s="31" t="s">
         <v>72</v>
       </c>
@@ -10035,7 +10046,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="32" customHeight="1">
       <c r="A37" s="31" t="s">
         <v>72</v>
       </c>
@@ -10064,7 +10075,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="32" customHeight="1">
       <c r="A38" s="31" t="s">
         <v>72</v>
       </c>
@@ -10093,7 +10104,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="153">
       <c r="A39" s="31" t="s">
         <v>72</v>
       </c>
@@ -10122,7 +10133,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="32" customHeight="1">
       <c r="A40" s="31" t="s">
         <v>72</v>
       </c>
@@ -10151,7 +10162,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="153">
       <c r="A41" s="31" t="s">
         <v>72</v>
       </c>
@@ -10180,7 +10191,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="32" customHeight="1">
       <c r="A42" s="31" t="s">
         <v>72</v>
       </c>
@@ -10209,7 +10220,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="153">
       <c r="A43" s="31" t="s">
         <v>72</v>
       </c>
@@ -10238,7 +10249,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="144" customHeight="1">
       <c r="A44" s="31" t="s">
         <v>72</v>
       </c>
@@ -10267,7 +10278,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="144" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>72</v>
       </c>
@@ -10296,7 +10307,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="48" customHeight="1">
       <c r="A46" s="31" t="s">
         <v>72</v>
       </c>
@@ -10325,7 +10336,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="153">
       <c r="A47" s="31" t="s">
         <v>72</v>
       </c>
@@ -10354,7 +10365,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="32" customHeight="1">
       <c r="A48" s="31" t="s">
         <v>72</v>
       </c>
@@ -10383,7 +10394,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="153">
       <c r="A49" s="31" t="s">
         <v>72</v>
       </c>
@@ -10412,7 +10423,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16" customHeight="1">
       <c r="A50" s="31" t="s">
         <v>72</v>
       </c>
@@ -10441,7 +10452,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="153">
       <c r="A51" s="31" t="s">
         <v>72</v>
       </c>
@@ -10470,7 +10481,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="32" customHeight="1">
       <c r="A52" s="31" t="s">
         <v>72</v>
       </c>
@@ -10499,7 +10510,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="153">
       <c r="A53" s="31" t="s">
         <v>72</v>
       </c>
@@ -10528,7 +10539,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="32" customHeight="1">
       <c r="A54" s="31" t="s">
         <v>72</v>
       </c>
@@ -10557,7 +10568,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="153">
       <c r="A55" s="31" t="s">
         <v>72</v>
       </c>
@@ -10586,7 +10597,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="32" customHeight="1">
       <c r="A56" s="31" t="s">
         <v>72</v>
       </c>
@@ -10615,7 +10626,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="153">
       <c r="A57" s="31" t="s">
         <v>72</v>
       </c>
@@ -10644,7 +10655,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="144" customHeight="1">
       <c r="A58" s="31" t="s">
         <v>72</v>
       </c>
@@ -10673,7 +10684,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="48" customHeight="1">
       <c r="A59" s="31" t="s">
         <v>72</v>
       </c>
@@ -10702,7 +10713,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="32" customHeight="1">
       <c r="A60" s="31" t="s">
         <v>72</v>
       </c>
@@ -10731,7 +10742,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="32" customHeight="1">
       <c r="A61" s="31" t="s">
         <v>72</v>
       </c>
@@ -10760,7 +10771,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16" customHeight="1">
       <c r="A62" s="31" t="s">
         <v>72</v>
       </c>
@@ -10789,7 +10800,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="32" customHeight="1">
       <c r="A63" s="31" t="s">
         <v>72</v>
       </c>
@@ -10818,7 +10829,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="32" customHeight="1">
       <c r="A64" s="31" t="s">
         <v>72</v>
       </c>
@@ -10847,7 +10858,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="102">
       <c r="A65" s="31" t="s">
         <v>72</v>
       </c>
@@ -10876,7 +10887,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="144" customHeight="1">
       <c r="A66" s="31" t="s">
         <v>72</v>
       </c>
@@ -10905,7 +10916,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="144" customHeight="1">
       <c r="A67" s="31" t="s">
         <v>72</v>
       </c>
@@ -10934,7 +10945,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="32" customHeight="1">
       <c r="A68" s="31" t="s">
         <v>72</v>
       </c>
@@ -10963,7 +10974,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="102">
       <c r="A69" s="31" t="s">
         <v>72</v>
       </c>
@@ -10992,7 +11003,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="32" customHeight="1">
       <c r="A70" s="31" t="s">
         <v>72</v>
       </c>
@@ -11021,7 +11032,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="102">
       <c r="A71" s="31" t="s">
         <v>72</v>
       </c>
@@ -11050,7 +11061,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="32" customHeight="1">
       <c r="A72" s="31" t="s">
         <v>72</v>
       </c>
@@ -11079,7 +11090,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="51">
       <c r="A73" s="31" t="s">
         <v>72</v>
       </c>
@@ -11108,7 +11119,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="32" customHeight="1">
       <c r="A74" s="31" t="s">
         <v>72</v>
       </c>
@@ -11137,7 +11148,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="51">
       <c r="A75" s="31" t="s">
         <v>72</v>
       </c>
@@ -11166,7 +11177,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="32" customHeight="1">
       <c r="A76" s="31" t="s">
         <v>72</v>
       </c>
@@ -11195,7 +11206,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="51">
       <c r="A77" s="31" t="s">
         <v>72</v>
       </c>
@@ -11224,7 +11235,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="32" customHeight="1">
       <c r="A78" s="31" t="s">
         <v>72</v>
       </c>
@@ -11253,7 +11264,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="51">
       <c r="A79" s="31" t="s">
         <v>72</v>
       </c>
@@ -11282,7 +11293,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="144" customHeight="1">
       <c r="A80" s="31" t="s">
         <v>72</v>
       </c>
@@ -11311,7 +11322,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="144" customHeight="1">
       <c r="A81" s="31" t="s">
         <v>72</v>
       </c>
@@ -11340,7 +11351,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="32" customHeight="1">
       <c r="A82" s="31" t="s">
         <v>72</v>
       </c>
@@ -11369,7 +11380,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="51">
       <c r="A83" s="31" t="s">
         <v>72</v>
       </c>
@@ -11398,7 +11409,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="32" customHeight="1">
       <c r="A84" s="31" t="s">
         <v>72</v>
       </c>
@@ -11427,7 +11438,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="51">
       <c r="A85" s="31" t="s">
         <v>72</v>
       </c>
@@ -11456,7 +11467,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="32" customHeight="1">
       <c r="A86" s="35" t="s">
         <v>840</v>
       </c>
@@ -11485,7 +11496,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="102">
       <c r="A87" s="35" t="s">
         <v>840</v>
       </c>
@@ -11514,7 +11525,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="32" customHeight="1">
       <c r="A88" s="35" t="s">
         <v>840</v>
       </c>
@@ -11543,7 +11554,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="102">
       <c r="A89" s="35" t="s">
         <v>840</v>
       </c>
@@ -11572,7 +11583,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="32" customHeight="1">
       <c r="A90" s="35" t="s">
         <v>840</v>
       </c>
@@ -11601,7 +11612,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="102">
       <c r="A91" s="35" t="s">
         <v>840</v>
       </c>
@@ -11630,7 +11641,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="32" customHeight="1">
       <c r="A92" s="35" t="s">
         <v>840</v>
       </c>
@@ -11659,7 +11670,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="102">
       <c r="A93" s="35" t="s">
         <v>840</v>
       </c>
@@ -11688,7 +11699,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="144" customHeight="1">
       <c r="A94" s="35" t="s">
         <v>840</v>
       </c>
@@ -11717,7 +11728,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="144" customHeight="1">
       <c r="A95" s="35" t="s">
         <v>840</v>
       </c>
@@ -11746,7 +11757,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="48" customHeight="1">
       <c r="A96" s="35" t="s">
         <v>840</v>
       </c>
@@ -11775,7 +11786,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="102">
       <c r="A97" s="35" t="s">
         <v>840</v>
       </c>
@@ -11804,7 +11815,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="32" customHeight="1">
       <c r="A98" s="35" t="s">
         <v>840</v>
       </c>
@@ -11833,7 +11844,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="102">
       <c r="A99" s="35" t="s">
         <v>840</v>
       </c>
@@ -11862,7 +11873,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="32" customHeight="1">
       <c r="A100" s="35" t="s">
         <v>840</v>
       </c>
@@ -11889,7 +11900,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="102">
       <c r="A101" s="35" t="s">
         <v>840</v>
       </c>
@@ -11916,7 +11927,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="48" customHeight="1">
       <c r="A102" s="35" t="s">
         <v>840</v>
       </c>
@@ -11943,7 +11954,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="102">
       <c r="A103" s="35" t="s">
         <v>840</v>
       </c>
@@ -11970,7 +11981,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="32" customHeight="1">
       <c r="A104" s="35" t="s">
         <v>840</v>
       </c>
@@ -11997,7 +12008,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="102">
       <c r="A105" s="35" t="s">
         <v>840</v>
       </c>
@@ -12024,7 +12035,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="32" customHeight="1">
       <c r="A106" s="35" t="s">
         <v>840</v>
       </c>
@@ -12051,7 +12062,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="85">
       <c r="A107" s="35" t="s">
         <v>840</v>
       </c>
@@ -12078,7 +12089,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="32" customHeight="1">
       <c r="A108" s="35" t="s">
         <v>840</v>
       </c>
@@ -12105,7 +12116,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16" customHeight="1">
       <c r="A109" s="35" t="s">
         <v>840</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16" customHeight="1">
       <c r="A110" s="35" t="s">
         <v>840</v>
       </c>
@@ -12159,7 +12170,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16" customHeight="1">
       <c r="A111" s="35" t="s">
         <v>840</v>
       </c>
@@ -12186,7 +12197,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="32" customHeight="1">
       <c r="A112" s="35" t="s">
         <v>840</v>
       </c>
@@ -12213,7 +12224,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16" customHeight="1">
       <c r="A113" s="35" t="s">
         <v>840</v>
       </c>
@@ -12240,7 +12251,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16" customHeight="1">
       <c r="A114" s="35" t="s">
         <v>840</v>
       </c>
@@ -12269,7 +12280,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16" customHeight="1">
       <c r="A115" s="35" t="s">
         <v>840</v>
       </c>
@@ -12298,7 +12309,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16" customHeight="1">
       <c r="A116" s="35" t="s">
         <v>840</v>
       </c>
@@ -12327,7 +12338,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16" customHeight="1">
       <c r="A117" s="35" t="s">
         <v>840</v>
       </c>
@@ -12356,7 +12367,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16" customHeight="1">
       <c r="A118" s="35" t="s">
         <v>840</v>
       </c>
@@ -12385,7 +12396,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16" customHeight="1">
       <c r="A119" s="35" t="s">
         <v>840</v>
       </c>
@@ -12414,7 +12425,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="32" customHeight="1">
       <c r="A120" s="35" t="s">
         <v>840</v>
       </c>
@@ -12443,7 +12454,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16" customHeight="1">
       <c r="A121" s="35" t="s">
         <v>840</v>
       </c>
@@ -12472,7 +12483,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="32" customHeight="1">
       <c r="A122" s="35" t="s">
         <v>840</v>
       </c>
@@ -12501,7 +12512,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16" customHeight="1">
       <c r="A123" s="35" t="s">
         <v>840</v>
       </c>
@@ -12530,7 +12541,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="32" customHeight="1">
       <c r="A124" s="35" t="s">
         <v>840</v>
       </c>
@@ -12559,7 +12570,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16" customHeight="1">
       <c r="A125" s="35" t="s">
         <v>840</v>
       </c>
@@ -12588,7 +12599,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="32" customHeight="1">
       <c r="A126" s="35" t="s">
         <v>840</v>
       </c>
@@ -12617,7 +12628,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16" customHeight="1">
       <c r="A127" s="35" t="s">
         <v>840</v>
       </c>
@@ -12646,7 +12657,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="32" customHeight="1">
       <c r="A128" s="35" t="s">
         <v>840</v>
       </c>
@@ -12673,7 +12684,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16" customHeight="1">
       <c r="A129" s="35" t="s">
         <v>840</v>
       </c>
@@ -12700,7 +12711,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="16" customHeight="1">
       <c r="A130" s="35" t="s">
         <v>840</v>
       </c>
@@ -12727,7 +12738,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="16" customHeight="1">
       <c r="A131" s="35" t="s">
         <v>840</v>
       </c>
@@ -12754,7 +12765,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="32" customHeight="1">
       <c r="A132" s="35" t="s">
         <v>840</v>
       </c>
@@ -12781,7 +12792,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16" customHeight="1">
       <c r="A133" s="35" t="s">
         <v>840</v>
       </c>
@@ -12808,7 +12819,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="32" customHeight="1">
       <c r="A134" s="35" t="s">
         <v>840</v>
       </c>
@@ -12835,7 +12846,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16" customHeight="1">
       <c r="A135" s="35" t="s">
         <v>840</v>
       </c>
@@ -12862,7 +12873,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="16" customHeight="1">
       <c r="A136" s="35" t="s">
         <v>840</v>
       </c>
@@ -12889,7 +12900,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="34">
       <c r="A137" s="35" t="s">
         <v>840</v>
       </c>
@@ -12916,7 +12927,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="32" customHeight="1">
       <c r="A138" s="35" t="s">
         <v>840</v>
       </c>
@@ -12943,7 +12954,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="34">
       <c r="A139" s="35" t="s">
         <v>840</v>
       </c>
@@ -12970,7 +12981,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="32" customHeight="1">
       <c r="A140" s="35" t="s">
         <v>840</v>
       </c>
@@ -12997,7 +13008,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="34">
       <c r="A141" s="35" t="s">
         <v>840</v>
       </c>
@@ -13024,7 +13035,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16" customHeight="1">
       <c r="A142" s="35" t="s">
         <v>840</v>
       </c>
@@ -13053,7 +13064,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="136">
       <c r="A143" s="35" t="s">
         <v>840</v>
       </c>
@@ -13082,7 +13093,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16" customHeight="1">
       <c r="A144" s="35" t="s">
         <v>840</v>
       </c>
@@ -13111,7 +13122,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="136">
       <c r="A145" s="35" t="s">
         <v>840</v>
       </c>
@@ -13140,7 +13151,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="32" customHeight="1">
       <c r="A146" s="35" t="s">
         <v>840</v>
       </c>
@@ -13169,7 +13180,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="136">
       <c r="A147" s="35" t="s">
         <v>840</v>
       </c>
@@ -13198,7 +13209,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="32" customHeight="1">
       <c r="A148" s="35" t="s">
         <v>840</v>
       </c>
@@ -13227,7 +13238,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="85">
       <c r="A149" s="35" t="s">
         <v>840</v>
       </c>
@@ -13256,7 +13267,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="16" customHeight="1">
       <c r="A150" s="35" t="s">
         <v>840</v>
       </c>
@@ -13285,7 +13296,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="85">
       <c r="A151" s="35" t="s">
         <v>840</v>
       </c>
@@ -13314,7 +13325,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="32" customHeight="1">
       <c r="A152" s="35" t="s">
         <v>840</v>
       </c>
@@ -13343,7 +13354,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="85">
       <c r="A153" s="35" t="s">
         <v>840</v>
       </c>
@@ -13372,7 +13383,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16" customHeight="1">
       <c r="A154" s="35" t="s">
         <v>840</v>
       </c>
@@ -13401,7 +13412,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="85">
       <c r="A155" s="35" t="s">
         <v>840</v>
       </c>
@@ -13430,7 +13441,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="32" customHeight="1">
       <c r="A156" s="35" t="s">
         <v>840</v>
       </c>
@@ -13459,7 +13470,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="68">
       <c r="A157" s="35" t="s">
         <v>840</v>
       </c>
@@ -13488,7 +13499,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="32" customHeight="1">
       <c r="A158" s="35" t="s">
         <v>840</v>
       </c>
@@ -13517,7 +13528,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="68">
       <c r="A159" s="35" t="s">
         <v>840</v>
       </c>
@@ -13546,7 +13557,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="32" customHeight="1">
       <c r="A160" s="35" t="s">
         <v>840</v>
       </c>
@@ -13575,7 +13586,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="68">
       <c r="A161" s="35" t="s">
         <v>840</v>
       </c>
@@ -13604,7 +13615,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="16" customHeight="1">
       <c r="A162" s="35" t="s">
         <v>840</v>
       </c>
@@ -13633,7 +13644,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="68">
       <c r="A163" s="35" t="s">
         <v>840</v>
       </c>
@@ -13662,7 +13673,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="32" customHeight="1">
       <c r="A164" s="35" t="s">
         <v>840</v>
       </c>
@@ -13691,7 +13702,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="68">
       <c r="A165" s="35" t="s">
         <v>840</v>
       </c>
@@ -13720,7 +13731,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="48" customHeight="1">
       <c r="A166" s="35" t="s">
         <v>840</v>
       </c>
@@ -13749,7 +13760,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="68">
       <c r="A167" s="35" t="s">
         <v>840</v>
       </c>
@@ -13778,7 +13789,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="48" customHeight="1">
       <c r="A168" s="35" t="s">
         <v>840</v>
       </c>
@@ -13807,7 +13818,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="68">
       <c r="A169" s="35" t="s">
         <v>840</v>
       </c>
@@ -13836,7 +13847,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="32" customHeight="1">
       <c r="A170" s="35" t="s">
         <v>840</v>
       </c>
@@ -13865,7 +13876,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="68">
       <c r="A171" s="35" t="s">
         <v>840</v>
       </c>
@@ -13894,7 +13905,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="32" customHeight="1">
       <c r="A172" s="35" t="s">
         <v>840</v>
       </c>
@@ -13923,7 +13934,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="68">
       <c r="A173" s="35" t="s">
         <v>840</v>
       </c>
@@ -13952,7 +13963,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16" customHeight="1">
       <c r="A174" s="35" t="s">
         <v>840</v>
       </c>
@@ -13981,7 +13992,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="68">
       <c r="A175" s="35" t="s">
         <v>840</v>
       </c>
@@ -14010,7 +14021,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="16" customHeight="1">
       <c r="A176" s="35" t="s">
         <v>840</v>
       </c>
@@ -14039,7 +14050,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="68">
       <c r="A177" s="35" t="s">
         <v>840</v>
       </c>
@@ -14068,7 +14079,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="96" customHeight="1">
       <c r="A178" s="35" t="s">
         <v>840</v>
       </c>
@@ -14097,7 +14108,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="68">
       <c r="A179" s="35" t="s">
         <v>840</v>
       </c>
@@ -14126,7 +14137,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="32" customHeight="1">
       <c r="A180" s="35" t="s">
         <v>840</v>
       </c>
@@ -14155,7 +14166,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="68">
       <c r="A181" s="35" t="s">
         <v>840</v>
       </c>
@@ -14184,7 +14195,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="32" customHeight="1">
       <c r="A182" s="35" t="s">
         <v>840</v>
       </c>
@@ -14213,7 +14224,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="68">
       <c r="A183" s="35" t="s">
         <v>840</v>
       </c>
@@ -14242,7 +14253,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="32" customHeight="1">
       <c r="A184" s="35" t="s">
         <v>840</v>
       </c>
@@ -14271,7 +14282,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="102">
       <c r="A185" s="35" t="s">
         <v>840</v>
       </c>
@@ -14300,7 +14311,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="32" customHeight="1">
       <c r="A186" s="35" t="s">
         <v>840</v>
       </c>
@@ -14329,7 +14340,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="102">
       <c r="A187" s="35" t="s">
         <v>840</v>
       </c>
@@ -14358,7 +14369,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="32" customHeight="1">
       <c r="A188" s="35" t="s">
         <v>840</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="102">
       <c r="A189" s="35" t="s">
         <v>840</v>
       </c>
@@ -14416,7 +14427,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="32" customHeight="1">
       <c r="A190" s="35" t="s">
         <v>840</v>
       </c>
@@ -14445,7 +14456,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="68">
       <c r="A191" s="35" t="s">
         <v>840</v>
       </c>
@@ -14474,7 +14485,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="96" customHeight="1">
       <c r="A192" s="35" t="s">
         <v>840</v>
       </c>
@@ -14503,7 +14514,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="68">
       <c r="A193" s="35" t="s">
         <v>840</v>
       </c>
@@ -14532,7 +14543,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="32" customHeight="1">
       <c r="A194" s="35" t="s">
         <v>840</v>
       </c>
@@ -14561,7 +14572,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="68">
       <c r="A195" s="35" t="s">
         <v>840</v>
       </c>
@@ -14590,7 +14601,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="32" customHeight="1">
       <c r="A196" s="35" t="s">
         <v>840</v>
       </c>
@@ -14619,7 +14630,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="68">
       <c r="A197" s="35" t="s">
         <v>840</v>
       </c>
@@ -14648,7 +14659,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="32" customHeight="1">
       <c r="A198" s="35" t="s">
         <v>840</v>
       </c>
@@ -14677,7 +14688,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="68">
       <c r="A199" s="35" t="s">
         <v>840</v>
       </c>
@@ -14706,7 +14717,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="32" customHeight="1">
       <c r="A200" s="35" t="s">
         <v>840</v>
       </c>
@@ -14735,7 +14746,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="68">
       <c r="A201" s="35" t="s">
         <v>840</v>
       </c>
@@ -14764,7 +14775,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="32" customHeight="1">
       <c r="A202" s="35" t="s">
         <v>840</v>
       </c>
@@ -14793,7 +14804,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="68">
       <c r="A203" s="35" t="s">
         <v>840</v>
       </c>
@@ -14822,7 +14833,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="32" customHeight="1">
       <c r="A204" s="35" t="s">
         <v>840</v>
       </c>
@@ -14851,7 +14862,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="68">
       <c r="A205" s="35" t="s">
         <v>840</v>
       </c>
@@ -14880,7 +14891,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="80" customHeight="1">
       <c r="A206" s="35" t="s">
         <v>840</v>
       </c>
@@ -14909,7 +14920,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="68">
       <c r="A207" s="35" t="s">
         <v>840</v>
       </c>
@@ -14938,7 +14949,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="32" customHeight="1">
       <c r="A208" s="35" t="s">
         <v>840</v>
       </c>
@@ -14967,7 +14978,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="68">
       <c r="A209" s="35" t="s">
         <v>840</v>
       </c>
@@ -14996,7 +15007,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16" customHeight="1">
       <c r="A210" s="35" t="s">
         <v>840</v>
       </c>
@@ -15025,7 +15036,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="68">
       <c r="A211" s="35" t="s">
         <v>840</v>
       </c>
@@ -15054,7 +15065,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="32" customHeight="1">
       <c r="A212" s="35" t="s">
         <v>840</v>
       </c>
@@ -15083,7 +15094,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="68">
       <c r="A213" s="35" t="s">
         <v>840</v>
       </c>
@@ -15112,7 +15123,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="32" customHeight="1">
       <c r="A214" s="35" t="s">
         <v>840</v>
       </c>
@@ -15141,7 +15152,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="68">
       <c r="A215" s="35" t="s">
         <v>840</v>
       </c>
@@ -15170,7 +15181,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="32" customHeight="1">
       <c r="A216" s="35" t="s">
         <v>840</v>
       </c>
@@ -15199,7 +15210,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="68">
       <c r="A217" s="35" t="s">
         <v>840</v>
       </c>
@@ -15228,7 +15239,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="32" customHeight="1">
       <c r="A218" s="35" t="s">
         <v>840</v>
       </c>
@@ -15257,7 +15268,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="68">
       <c r="A219" s="35" t="s">
         <v>840</v>
       </c>
@@ -15286,7 +15297,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="80" customHeight="1">
       <c r="A220" s="35" t="s">
         <v>840</v>
       </c>
@@ -15315,7 +15326,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="68">
       <c r="A221" s="35" t="s">
         <v>840</v>
       </c>
@@ -15344,7 +15355,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="32" customHeight="1">
       <c r="A222" s="35" t="s">
         <v>840</v>
       </c>
@@ -15373,7 +15384,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="68">
       <c r="A223" s="35" t="s">
         <v>840</v>
       </c>
@@ -15402,7 +15413,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="32" customHeight="1">
       <c r="A224" s="35" t="s">
         <v>840</v>
       </c>
@@ -15431,7 +15442,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="68">
       <c r="A225" s="35" t="s">
         <v>840</v>
       </c>
@@ -15460,7 +15471,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="16" customHeight="1">
       <c r="A226" s="35" t="s">
         <v>840</v>
       </c>
@@ -15489,7 +15500,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="51">
       <c r="A227" s="35" t="s">
         <v>840</v>
       </c>
@@ -15518,7 +15529,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="32" customHeight="1">
       <c r="A228" s="35" t="s">
         <v>840</v>
       </c>
@@ -15547,7 +15558,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="51">
       <c r="A229" s="35" t="s">
         <v>840</v>
       </c>
@@ -15576,7 +15587,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="16" customHeight="1">
       <c r="A230" s="35" t="s">
         <v>840</v>
       </c>
@@ -15605,7 +15616,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="51">
       <c r="A231" s="35" t="s">
         <v>840</v>
       </c>
@@ -15634,7 +15645,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="32" customHeight="1">
       <c r="A232" s="35" t="s">
         <v>840</v>
       </c>
@@ -15663,7 +15674,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="51">
       <c r="A233" s="35" t="s">
         <v>840</v>
       </c>
@@ -15692,7 +15703,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="32" customHeight="1">
       <c r="A234" s="35" t="s">
         <v>840</v>
       </c>
@@ -15721,7 +15732,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="51">
       <c r="A235" s="35" t="s">
         <v>840</v>
       </c>
@@ -15750,7 +15761,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="32" customHeight="1">
       <c r="A236" s="35" t="s">
         <v>840</v>
       </c>
@@ -15779,7 +15790,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="51">
       <c r="A237" s="35" t="s">
         <v>840</v>
       </c>
@@ -15808,7 +15819,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="32" customHeight="1">
       <c r="A238" s="35" t="s">
         <v>840</v>
       </c>
@@ -15837,7 +15848,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="51">
       <c r="A239" s="35" t="s">
         <v>840</v>
       </c>
@@ -15866,7 +15877,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="32" customHeight="1">
       <c r="A240" s="35" t="s">
         <v>840</v>
       </c>
@@ -15893,7 +15904,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="34">
       <c r="A241" s="35" t="s">
         <v>840</v>
       </c>
@@ -15920,7 +15931,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="32" customHeight="1">
       <c r="A242" s="35" t="s">
         <v>840</v>
       </c>
@@ -15947,7 +15958,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="34">
       <c r="A243" s="35" t="s">
         <v>840</v>
       </c>
@@ -15974,7 +15985,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="32" customHeight="1">
       <c r="A244" s="35" t="s">
         <v>840</v>
       </c>
@@ -16001,7 +16012,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="34">
       <c r="A245" s="35" t="s">
         <v>840</v>
       </c>
@@ -16028,7 +16039,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="32" customHeight="1">
       <c r="A246" s="35" t="s">
         <v>840</v>
       </c>
@@ -16055,7 +16066,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="34">
       <c r="A247" s="35" t="s">
         <v>840</v>
       </c>
@@ -16084,7 +16095,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="34">
       <c r="A248" s="35" t="s">
         <v>840</v>
       </c>
@@ -16113,7 +16124,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="34">
       <c r="A249" s="35" t="s">
         <v>840</v>
       </c>
@@ -16142,7 +16153,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="34">
       <c r="A250" s="35" t="s">
         <v>840</v>
       </c>
@@ -16171,7 +16182,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="34">
       <c r="A251" s="35" t="s">
         <v>840</v>
       </c>
@@ -16200,7 +16211,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="34">
       <c r="A252" s="35" t="s">
         <v>840</v>
       </c>
@@ -16229,7 +16240,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="34">
       <c r="A253" s="35" t="s">
         <v>840</v>
       </c>
@@ -16258,7 +16269,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="34">
       <c r="A254" s="35" t="s">
         <v>840</v>
       </c>
@@ -16287,7 +16298,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="34">
       <c r="A255" s="35" t="s">
         <v>840</v>
       </c>
@@ -16316,7 +16327,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="34">
       <c r="A256" s="35" t="s">
         <v>840</v>
       </c>
@@ -16345,7 +16356,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="34">
       <c r="A257" s="35" t="s">
         <v>840</v>
       </c>
@@ -16374,7 +16385,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="34">
       <c r="A258" s="35" t="s">
         <v>840</v>
       </c>
@@ -16403,7 +16414,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="34">
       <c r="A259" s="35" t="s">
         <v>840</v>
       </c>
@@ -16432,7 +16443,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="34">
       <c r="A260" s="35" t="s">
         <v>840</v>
       </c>
@@ -16461,7 +16472,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="51">
       <c r="A261" s="31" t="s">
         <v>79</v>
       </c>
@@ -16488,7 +16499,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="51">
       <c r="A262" s="31" t="s">
         <v>79</v>
       </c>
@@ -16515,7 +16526,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="51">
       <c r="A263" s="31" t="s">
         <v>79</v>
       </c>
@@ -16542,7 +16553,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="51">
       <c r="A264" s="31" t="s">
         <v>79</v>
       </c>
@@ -16569,7 +16580,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="51">
       <c r="A265" s="31" t="s">
         <v>79</v>
       </c>
@@ -16596,7 +16607,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="51">
       <c r="A266" s="31" t="s">
         <v>79</v>
       </c>
@@ -16623,7 +16634,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="51">
       <c r="A267" s="31" t="s">
         <v>79</v>
       </c>
@@ -16650,7 +16661,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="51">
       <c r="A268" s="31" t="s">
         <v>79</v>
       </c>
@@ -16677,7 +16688,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="51">
       <c r="A269" s="31" t="s">
         <v>79</v>
       </c>
@@ -16704,7 +16715,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="51">
       <c r="A270" s="31" t="s">
         <v>79</v>
       </c>
@@ -16731,7 +16742,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="51">
       <c r="A271" s="31" t="s">
         <v>79</v>
       </c>
@@ -16758,7 +16769,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="51">
       <c r="A272" s="31" t="s">
         <v>79</v>
       </c>
@@ -16785,7 +16796,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="51">
       <c r="A273" s="31" t="s">
         <v>79</v>
       </c>
@@ -16812,7 +16823,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="51">
       <c r="A274" s="31" t="s">
         <v>79</v>
       </c>
@@ -16839,7 +16850,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="17">
       <c r="A275" s="31" t="s">
         <v>86</v>
       </c>
@@ -16866,7 +16877,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="128" customHeight="1">
       <c r="A276" s="31" t="s">
         <v>86</v>
       </c>
@@ -16893,7 +16904,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="64" customHeight="1">
       <c r="A277" s="31" t="s">
         <v>86</v>
       </c>
@@ -16920,7 +16931,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="32" customHeight="1">
       <c r="A278" s="31" t="s">
         <v>86</v>
       </c>
@@ -16947,7 +16958,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="17">
       <c r="A279" s="31" t="s">
         <v>86</v>
       </c>
@@ -16974,7 +16985,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="32" customHeight="1">
       <c r="A280" s="31" t="s">
         <v>86</v>
       </c>
@@ -17001,7 +17012,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="34">
       <c r="A281" s="31" t="s">
         <v>86</v>
       </c>
@@ -17028,7 +17039,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="32" customHeight="1">
       <c r="A282" s="31" t="s">
         <v>88</v>
       </c>
@@ -17055,7 +17066,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="17">
       <c r="A283" s="31" t="s">
         <v>88</v>
       </c>
@@ -17082,7 +17093,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="32" customHeight="1">
       <c r="A284" s="31" t="s">
         <v>88</v>
       </c>
@@ -17109,7 +17120,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="34">
       <c r="A285" s="31" t="s">
         <v>88</v>
       </c>
@@ -17136,7 +17147,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="32" customHeight="1">
       <c r="A286" s="31" t="s">
         <v>88</v>
       </c>
@@ -17163,7 +17174,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="34">
       <c r="A287" s="31" t="s">
         <v>88</v>
       </c>
@@ -17190,7 +17201,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="32" customHeight="1">
       <c r="A288" s="31" t="s">
         <v>88</v>
       </c>
@@ -17217,7 +17228,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="34">
       <c r="A289" s="31" t="s">
         <v>88</v>
       </c>
@@ -17240,7 +17251,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="80" customHeight="1">
       <c r="A290" s="31" t="s">
         <v>88</v>
       </c>
@@ -17264,7 +17275,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="34">
       <c r="A291" s="31" t="s">
         <v>88</v>
       </c>
@@ -17287,7 +17298,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="32" customHeight="1">
       <c r="A292" s="31" t="s">
         <v>88</v>
       </c>
@@ -17311,7 +17322,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="30">
       <c r="A293" s="31" t="s">
         <v>88</v>
       </c>
@@ -17335,7 +17346,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="32" customHeight="1">
       <c r="A294" s="31" t="s">
         <v>88</v>
       </c>
@@ -17359,7 +17370,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="34">
       <c r="A295" s="31" t="s">
         <v>88</v>
       </c>
@@ -17382,7 +17393,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="16" customHeight="1">
       <c r="A296" s="31" t="s">
         <v>88</v>
       </c>
@@ -17406,7 +17417,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="34">
       <c r="A297" s="31" t="s">
         <v>88</v>
       </c>
@@ -17429,7 +17440,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="32" customHeight="1">
       <c r="A298" s="31" t="s">
         <v>88</v>
       </c>
@@ -17452,7 +17463,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="30">
       <c r="A299" s="31" t="s">
         <v>88</v>
       </c>
@@ -17476,7 +17487,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="32" customHeight="1">
       <c r="A300" s="31" t="s">
         <v>88</v>
       </c>
@@ -17499,7 +17510,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="30">
       <c r="A301" s="31" t="s">
         <v>88</v>
       </c>
@@ -17523,7 +17534,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="32" customHeight="1">
       <c r="A302" s="31" t="s">
         <v>88</v>
       </c>
@@ -17546,7 +17557,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="51">
       <c r="A303" s="31" t="s">
         <v>88</v>
       </c>
@@ -17572,7 +17583,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="32" customHeight="1">
       <c r="A304" s="31" t="s">
         <v>88</v>
       </c>
@@ -17598,7 +17609,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="34">
       <c r="A305" s="31" t="s">
         <v>88</v>
       </c>
@@ -17624,7 +17635,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="32" customHeight="1">
       <c r="A306" s="31" t="s">
         <v>88</v>
       </c>
@@ -17650,7 +17661,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="34">
       <c r="A307" s="31" t="s">
         <v>88</v>
       </c>
@@ -17676,7 +17687,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="32" customHeight="1">
       <c r="A308" s="31" t="s">
         <v>88</v>
       </c>
@@ -17702,7 +17713,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="51">
       <c r="A309" s="31" t="s">
         <v>88</v>
       </c>
@@ -17728,7 +17739,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="16" customHeight="1">
       <c r="A310" s="31" t="s">
         <v>88</v>
       </c>
@@ -17754,7 +17765,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="34">
       <c r="A311" s="31" t="s">
         <v>88</v>
       </c>
@@ -17780,7 +17791,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="32" customHeight="1">
       <c r="A312" s="31" t="s">
         <v>88</v>
       </c>
@@ -17806,7 +17817,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="34">
       <c r="A313" s="31" t="s">
         <v>88</v>
       </c>
@@ -17832,7 +17843,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="32" customHeight="1">
       <c r="A314" s="31" t="s">
         <v>88</v>
       </c>
@@ -17858,7 +17869,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="34">
       <c r="A315" s="31" t="s">
         <v>88</v>
       </c>
@@ -17884,7 +17895,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="32" customHeight="1">
       <c r="A316" s="31" t="s">
         <v>88</v>
       </c>
@@ -17910,7 +17921,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="34">
       <c r="A317" s="31" t="s">
         <v>88</v>
       </c>
@@ -17936,7 +17947,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="16" customHeight="1">
       <c r="A318" s="31" t="s">
         <v>88</v>
       </c>
@@ -17962,7 +17973,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="51">
       <c r="A319" s="31" t="s">
         <v>88</v>
       </c>
@@ -17988,7 +17999,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="16" customHeight="1">
       <c r="A320" s="31" t="s">
         <v>88</v>
       </c>
@@ -18014,7 +18025,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="51">
       <c r="A321" s="31" t="s">
         <v>88</v>
       </c>
@@ -18040,7 +18051,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="16" customHeight="1">
       <c r="A322" s="35" t="s">
         <v>783</v>
       </c>
@@ -18066,7 +18077,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="34">
       <c r="A323" s="31" t="s">
         <v>88</v>
       </c>
@@ -18092,7 +18103,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="16" customHeight="1">
       <c r="A324" s="35" t="s">
         <v>783</v>
       </c>
@@ -18118,7 +18129,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="34">
       <c r="A325" s="35" t="s">
         <v>783</v>
       </c>
@@ -18144,7 +18155,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="32" customHeight="1">
       <c r="A326" s="31" t="s">
         <v>88</v>
       </c>
@@ -18170,7 +18181,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="34">
       <c r="A327" s="31" t="s">
         <v>88</v>
       </c>
@@ -18196,7 +18207,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="16" customHeight="1">
       <c r="A328" s="35" t="s">
         <v>783</v>
       </c>
@@ -18222,7 +18233,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="34">
       <c r="A329" s="35" t="s">
         <v>783</v>
       </c>
@@ -18248,7 +18259,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="32" customHeight="1">
       <c r="A330" s="35" t="s">
         <v>783</v>
       </c>
@@ -18274,7 +18285,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="34">
       <c r="A331" s="31" t="s">
         <v>88</v>
       </c>
@@ -18300,7 +18311,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="32" customHeight="1">
       <c r="A332" s="31" t="s">
         <v>88</v>
       </c>
@@ -18326,7 +18337,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="45">
       <c r="A333" s="31" t="s">
         <v>88</v>
       </c>
@@ -18352,7 +18363,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="16" customHeight="1">
       <c r="A334" s="35" t="s">
         <v>783</v>
       </c>
@@ -18378,7 +18389,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="34">
       <c r="A335" s="35" t="s">
         <v>783</v>
       </c>
@@ -18404,7 +18415,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="32" customHeight="1">
       <c r="A336" s="35" t="s">
         <v>783</v>
       </c>
@@ -18430,7 +18441,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="34">
       <c r="A337" s="31" t="s">
         <v>88</v>
       </c>
@@ -18456,7 +18467,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" customHeight="1">
       <c r="A338" s="35" t="s">
         <v>783</v>
       </c>
@@ -18482,7 +18493,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="34">
       <c r="A339" s="35" t="s">
         <v>783</v>
       </c>
@@ -18508,7 +18519,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="32" customHeight="1">
       <c r="A340" s="35" t="s">
         <v>783</v>
       </c>
@@ -18534,7 +18545,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="51">
       <c r="A341" s="35" t="s">
         <v>783</v>
       </c>
@@ -18561,8 +18572,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <sortState ref="A2:I635">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I635">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18572,17 +18583,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I341"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H333" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F344" sqref="F344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
@@ -18590,7 +18601,7 @@
     <col min="9" max="9" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="85">
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
@@ -18616,7 +18627,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="32" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>72</v>
       </c>
@@ -18643,7 +18654,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="68">
       <c r="A3" s="31" t="s">
         <v>72</v>
       </c>
@@ -18670,7 +18681,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="32" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>72</v>
       </c>
@@ -18697,7 +18708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="68">
       <c r="A5" s="31" t="s">
         <v>72</v>
       </c>
@@ -18724,7 +18735,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="32" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>72</v>
       </c>
@@ -18751,7 +18762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="68">
       <c r="A7" s="31" t="s">
         <v>72</v>
       </c>
@@ -18778,7 +18789,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="32" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>72</v>
       </c>
@@ -18805,7 +18816,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="68">
       <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
@@ -18832,7 +18843,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="32" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>72</v>
       </c>
@@ -18859,7 +18870,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="68">
       <c r="A11" s="31" t="s">
         <v>72</v>
       </c>
@@ -18886,7 +18897,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="32" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>72</v>
       </c>
@@ -18913,7 +18924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="68">
       <c r="A13" s="31" t="s">
         <v>72</v>
       </c>
@@ -18940,7 +18951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="32" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>72</v>
       </c>
@@ -18967,7 +18978,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="68">
       <c r="A15" s="31" t="s">
         <v>72</v>
       </c>
@@ -18994,7 +19005,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="32" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>72</v>
       </c>
@@ -19023,7 +19034,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="153">
       <c r="A17" s="31" t="s">
         <v>72</v>
       </c>
@@ -19052,7 +19063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="48" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>72</v>
       </c>
@@ -19081,7 +19092,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="153">
       <c r="A19" s="31" t="s">
         <v>72</v>
       </c>
@@ -19110,7 +19121,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="32" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>72</v>
       </c>
@@ -19139,7 +19150,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="153">
       <c r="A21" s="31" t="s">
         <v>72</v>
       </c>
@@ -19168,7 +19179,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="32" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>72</v>
       </c>
@@ -19197,7 +19208,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="153">
       <c r="A23" s="31" t="s">
         <v>72</v>
       </c>
@@ -19226,7 +19237,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="32" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>72</v>
       </c>
@@ -19255,7 +19266,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="32" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>72</v>
       </c>
@@ -19284,7 +19295,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="48" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>72</v>
       </c>
@@ -19313,7 +19324,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="48" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>72</v>
       </c>
@@ -19342,7 +19353,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>72</v>
       </c>
@@ -19371,7 +19382,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="32" customHeight="1">
       <c r="A29" s="31" t="s">
         <v>72</v>
       </c>
@@ -19400,7 +19411,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="272" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>72</v>
       </c>
@@ -19429,7 +19440,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="272" customHeight="1">
       <c r="A31" s="31" t="s">
         <v>72</v>
       </c>
@@ -19458,7 +19469,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="48" customHeight="1">
       <c r="A32" s="31" t="s">
         <v>72</v>
       </c>
@@ -19487,7 +19498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="153">
       <c r="A33" s="31" t="s">
         <v>72</v>
       </c>
@@ -19516,7 +19527,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="32" customHeight="1">
       <c r="A34" s="31" t="s">
         <v>72</v>
       </c>
@@ -19545,7 +19556,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="153">
       <c r="A35" s="31" t="s">
         <v>72</v>
       </c>
@@ -19574,7 +19585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="32" customHeight="1">
       <c r="A36" s="31" t="s">
         <v>72</v>
       </c>
@@ -19603,7 +19614,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="32" customHeight="1">
       <c r="A37" s="31" t="s">
         <v>72</v>
       </c>
@@ -19632,7 +19643,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="32" customHeight="1">
       <c r="A38" s="31" t="s">
         <v>72</v>
       </c>
@@ -19661,7 +19672,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="153">
       <c r="A39" s="31" t="s">
         <v>72</v>
       </c>
@@ -19690,7 +19701,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="32" customHeight="1">
       <c r="A40" s="31" t="s">
         <v>72</v>
       </c>
@@ -19719,7 +19730,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="153">
       <c r="A41" s="31" t="s">
         <v>72</v>
       </c>
@@ -19748,7 +19759,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="32" customHeight="1">
       <c r="A42" s="31" t="s">
         <v>72</v>
       </c>
@@ -19777,7 +19788,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="153">
       <c r="A43" s="31" t="s">
         <v>72</v>
       </c>
@@ -19806,7 +19817,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="144" customHeight="1">
       <c r="A44" s="31" t="s">
         <v>72</v>
       </c>
@@ -19835,7 +19846,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="144" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>72</v>
       </c>
@@ -19864,7 +19875,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="48" customHeight="1">
       <c r="A46" s="31" t="s">
         <v>72</v>
       </c>
@@ -19893,7 +19904,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="153">
       <c r="A47" s="31" t="s">
         <v>72</v>
       </c>
@@ -19922,7 +19933,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="32" customHeight="1">
       <c r="A48" s="31" t="s">
         <v>72</v>
       </c>
@@ -19951,7 +19962,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="153">
       <c r="A49" s="31" t="s">
         <v>72</v>
       </c>
@@ -19980,7 +19991,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16" customHeight="1">
       <c r="A50" s="31" t="s">
         <v>72</v>
       </c>
@@ -20009,7 +20020,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="153">
       <c r="A51" s="31" t="s">
         <v>72</v>
       </c>
@@ -20038,7 +20049,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="32" customHeight="1">
       <c r="A52" s="31" t="s">
         <v>72</v>
       </c>
@@ -20067,7 +20078,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="153">
       <c r="A53" s="31" t="s">
         <v>72</v>
       </c>
@@ -20096,7 +20107,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="32" customHeight="1">
       <c r="A54" s="31" t="s">
         <v>72</v>
       </c>
@@ -20125,7 +20136,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="153">
       <c r="A55" s="31" t="s">
         <v>72</v>
       </c>
@@ -20154,7 +20165,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="32" customHeight="1">
       <c r="A56" s="31" t="s">
         <v>72</v>
       </c>
@@ -20183,7 +20194,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="153">
       <c r="A57" s="31" t="s">
         <v>72</v>
       </c>
@@ -20212,7 +20223,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="144" customHeight="1">
       <c r="A58" s="31" t="s">
         <v>72</v>
       </c>
@@ -20241,7 +20252,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="48" customHeight="1">
       <c r="A59" s="31" t="s">
         <v>72</v>
       </c>
@@ -20270,7 +20281,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="32" customHeight="1">
       <c r="A60" s="31" t="s">
         <v>72</v>
       </c>
@@ -20299,7 +20310,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="32" customHeight="1">
       <c r="A61" s="31" t="s">
         <v>72</v>
       </c>
@@ -20328,7 +20339,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16" customHeight="1">
       <c r="A62" s="31" t="s">
         <v>72</v>
       </c>
@@ -20357,7 +20368,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="32" customHeight="1">
       <c r="A63" s="31" t="s">
         <v>72</v>
       </c>
@@ -20386,7 +20397,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="32" customHeight="1">
       <c r="A64" s="31" t="s">
         <v>72</v>
       </c>
@@ -20415,7 +20426,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="102">
       <c r="A65" s="31" t="s">
         <v>72</v>
       </c>
@@ -20444,7 +20455,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="144" customHeight="1">
       <c r="A66" s="31" t="s">
         <v>72</v>
       </c>
@@ -20473,7 +20484,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="144" customHeight="1">
       <c r="A67" s="31" t="s">
         <v>72</v>
       </c>
@@ -20502,7 +20513,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="32" customHeight="1">
       <c r="A68" s="31" t="s">
         <v>72</v>
       </c>
@@ -20531,7 +20542,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="102">
       <c r="A69" s="31" t="s">
         <v>72</v>
       </c>
@@ -20560,7 +20571,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="32" customHeight="1">
       <c r="A70" s="31" t="s">
         <v>72</v>
       </c>
@@ -20589,7 +20600,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="102">
       <c r="A71" s="31" t="s">
         <v>72</v>
       </c>
@@ -20618,7 +20629,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="32" customHeight="1">
       <c r="A72" s="31" t="s">
         <v>72</v>
       </c>
@@ -20647,7 +20658,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="51">
       <c r="A73" s="31" t="s">
         <v>72</v>
       </c>
@@ -20676,7 +20687,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="32" customHeight="1">
       <c r="A74" s="31" t="s">
         <v>72</v>
       </c>
@@ -20705,7 +20716,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="51">
       <c r="A75" s="31" t="s">
         <v>72</v>
       </c>
@@ -20734,7 +20745,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="32" customHeight="1">
       <c r="A76" s="31" t="s">
         <v>72</v>
       </c>
@@ -20763,7 +20774,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="51">
       <c r="A77" s="31" t="s">
         <v>72</v>
       </c>
@@ -20792,7 +20803,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="32" customHeight="1">
       <c r="A78" s="31" t="s">
         <v>72</v>
       </c>
@@ -20821,7 +20832,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="51">
       <c r="A79" s="31" t="s">
         <v>72</v>
       </c>
@@ -20850,7 +20861,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="144" customHeight="1">
       <c r="A80" s="31" t="s">
         <v>72</v>
       </c>
@@ -20879,7 +20890,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="144" customHeight="1">
       <c r="A81" s="31" t="s">
         <v>72</v>
       </c>
@@ -20908,7 +20919,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="32" customHeight="1">
       <c r="A82" s="31" t="s">
         <v>72</v>
       </c>
@@ -20937,7 +20948,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="51">
       <c r="A83" s="31" t="s">
         <v>72</v>
       </c>
@@ -20966,7 +20977,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="32" customHeight="1">
       <c r="A84" s="31" t="s">
         <v>72</v>
       </c>
@@ -20995,7 +21006,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="51">
       <c r="A85" s="31" t="s">
         <v>72</v>
       </c>
@@ -21024,7 +21035,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="32" customHeight="1">
       <c r="A86" s="35" t="s">
         <v>840</v>
       </c>
@@ -21053,7 +21064,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="102">
       <c r="A87" s="35" t="s">
         <v>840</v>
       </c>
@@ -21082,7 +21093,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="32" customHeight="1">
       <c r="A88" s="35" t="s">
         <v>840</v>
       </c>
@@ -21111,7 +21122,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="102">
       <c r="A89" s="35" t="s">
         <v>840</v>
       </c>
@@ -21140,7 +21151,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="32" customHeight="1">
       <c r="A90" s="35" t="s">
         <v>840</v>
       </c>
@@ -21169,7 +21180,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="102">
       <c r="A91" s="35" t="s">
         <v>840</v>
       </c>
@@ -21198,7 +21209,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="32" customHeight="1">
       <c r="A92" s="35" t="s">
         <v>840</v>
       </c>
@@ -21227,7 +21238,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="102">
       <c r="A93" s="35" t="s">
         <v>840</v>
       </c>
@@ -21256,7 +21267,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="144" customHeight="1">
       <c r="A94" s="35" t="s">
         <v>840</v>
       </c>
@@ -21285,7 +21296,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="144" customHeight="1">
       <c r="A95" s="35" t="s">
         <v>840</v>
       </c>
@@ -21314,7 +21325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="48" customHeight="1">
       <c r="A96" s="35" t="s">
         <v>840</v>
       </c>
@@ -21343,7 +21354,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="102">
       <c r="A97" s="35" t="s">
         <v>840</v>
       </c>
@@ -21372,7 +21383,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="32" customHeight="1">
       <c r="A98" s="35" t="s">
         <v>840</v>
       </c>
@@ -21401,7 +21412,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="102">
       <c r="A99" s="35" t="s">
         <v>840</v>
       </c>
@@ -21430,7 +21441,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="32" customHeight="1">
       <c r="A100" s="35" t="s">
         <v>840</v>
       </c>
@@ -21457,7 +21468,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="102">
       <c r="A101" s="35" t="s">
         <v>840</v>
       </c>
@@ -21484,7 +21495,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="48" customHeight="1">
       <c r="A102" s="35" t="s">
         <v>840</v>
       </c>
@@ -21511,7 +21522,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="102">
       <c r="A103" s="35" t="s">
         <v>840</v>
       </c>
@@ -21538,7 +21549,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="32" customHeight="1">
       <c r="A104" s="35" t="s">
         <v>840</v>
       </c>
@@ -21565,7 +21576,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="102">
       <c r="A105" s="35" t="s">
         <v>840</v>
       </c>
@@ -21592,7 +21603,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="32" customHeight="1">
       <c r="A106" s="35" t="s">
         <v>840</v>
       </c>
@@ -21619,7 +21630,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="85">
       <c r="A107" s="35" t="s">
         <v>840</v>
       </c>
@@ -21646,7 +21657,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="32" customHeight="1">
       <c r="A108" s="35" t="s">
         <v>840</v>
       </c>
@@ -21673,7 +21684,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16" customHeight="1">
       <c r="A109" s="35" t="s">
         <v>840</v>
       </c>
@@ -21700,7 +21711,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16" customHeight="1">
       <c r="A110" s="35" t="s">
         <v>840</v>
       </c>
@@ -21727,7 +21738,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16" customHeight="1">
       <c r="A111" s="35" t="s">
         <v>840</v>
       </c>
@@ -21754,7 +21765,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="32" customHeight="1">
       <c r="A112" s="35" t="s">
         <v>840</v>
       </c>
@@ -21781,7 +21792,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16" customHeight="1">
       <c r="A113" s="35" t="s">
         <v>840</v>
       </c>
@@ -21808,7 +21819,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16" customHeight="1">
       <c r="A114" s="35" t="s">
         <v>840</v>
       </c>
@@ -21837,7 +21848,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16" customHeight="1">
       <c r="A115" s="35" t="s">
         <v>840</v>
       </c>
@@ -21866,7 +21877,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16" customHeight="1">
       <c r="A116" s="35" t="s">
         <v>840</v>
       </c>
@@ -21895,7 +21906,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16" customHeight="1">
       <c r="A117" s="35" t="s">
         <v>840</v>
       </c>
@@ -21924,7 +21935,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16" customHeight="1">
       <c r="A118" s="35" t="s">
         <v>840</v>
       </c>
@@ -21953,7 +21964,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16" customHeight="1">
       <c r="A119" s="35" t="s">
         <v>840</v>
       </c>
@@ -21982,7 +21993,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="32" customHeight="1">
       <c r="A120" s="35" t="s">
         <v>840</v>
       </c>
@@ -22011,7 +22022,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16" customHeight="1">
       <c r="A121" s="35" t="s">
         <v>840</v>
       </c>
@@ -22040,7 +22051,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="32" customHeight="1">
       <c r="A122" s="35" t="s">
         <v>840</v>
       </c>
@@ -22069,7 +22080,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16" customHeight="1">
       <c r="A123" s="35" t="s">
         <v>840</v>
       </c>
@@ -22098,7 +22109,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="32" customHeight="1">
       <c r="A124" s="35" t="s">
         <v>840</v>
       </c>
@@ -22127,7 +22138,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16" customHeight="1">
       <c r="A125" s="35" t="s">
         <v>840</v>
       </c>
@@ -22156,7 +22167,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="32" customHeight="1">
       <c r="A126" s="35" t="s">
         <v>840</v>
       </c>
@@ -22185,7 +22196,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16" customHeight="1">
       <c r="A127" s="35" t="s">
         <v>840</v>
       </c>
@@ -22214,7 +22225,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="32" customHeight="1">
       <c r="A128" s="35" t="s">
         <v>840</v>
       </c>
@@ -22241,7 +22252,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16" customHeight="1">
       <c r="A129" s="35" t="s">
         <v>840</v>
       </c>
@@ -22268,7 +22279,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="16" customHeight="1">
       <c r="A130" s="35" t="s">
         <v>840</v>
       </c>
@@ -22295,7 +22306,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="16" customHeight="1">
       <c r="A131" s="35" t="s">
         <v>840</v>
       </c>
@@ -22322,7 +22333,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="32" customHeight="1">
       <c r="A132" s="35" t="s">
         <v>840</v>
       </c>
@@ -22349,7 +22360,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16" customHeight="1">
       <c r="A133" s="35" t="s">
         <v>840</v>
       </c>
@@ -22376,7 +22387,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="32" customHeight="1">
       <c r="A134" s="35" t="s">
         <v>840</v>
       </c>
@@ -22403,7 +22414,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16" customHeight="1">
       <c r="A135" s="35" t="s">
         <v>840</v>
       </c>
@@ -22430,7 +22441,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="16" customHeight="1">
       <c r="A136" s="35" t="s">
         <v>840</v>
       </c>
@@ -22457,7 +22468,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="34">
       <c r="A137" s="35" t="s">
         <v>840</v>
       </c>
@@ -22484,7 +22495,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="32" customHeight="1">
       <c r="A138" s="35" t="s">
         <v>840</v>
       </c>
@@ -22511,7 +22522,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="34">
       <c r="A139" s="35" t="s">
         <v>840</v>
       </c>
@@ -22538,7 +22549,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="32" customHeight="1">
       <c r="A140" s="35" t="s">
         <v>840</v>
       </c>
@@ -22565,7 +22576,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="34">
       <c r="A141" s="35" t="s">
         <v>840</v>
       </c>
@@ -22592,7 +22603,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16" customHeight="1">
       <c r="A142" s="35" t="s">
         <v>840</v>
       </c>
@@ -22621,7 +22632,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="136">
       <c r="A143" s="35" t="s">
         <v>840</v>
       </c>
@@ -22650,7 +22661,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16" customHeight="1">
       <c r="A144" s="35" t="s">
         <v>840</v>
       </c>
@@ -22679,7 +22690,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="136">
       <c r="A145" s="35" t="s">
         <v>840</v>
       </c>
@@ -22708,7 +22719,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="32" customHeight="1">
       <c r="A146" s="35" t="s">
         <v>840</v>
       </c>
@@ -22737,7 +22748,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="136">
       <c r="A147" s="35" t="s">
         <v>840</v>
       </c>
@@ -22766,7 +22777,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="32" customHeight="1">
       <c r="A148" s="35" t="s">
         <v>840</v>
       </c>
@@ -22795,7 +22806,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="85">
       <c r="A149" s="35" t="s">
         <v>840</v>
       </c>
@@ -22824,7 +22835,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="16" customHeight="1">
       <c r="A150" s="35" t="s">
         <v>840</v>
       </c>
@@ -22853,7 +22864,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="85">
       <c r="A151" s="35" t="s">
         <v>840</v>
       </c>
@@ -22882,7 +22893,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="32" customHeight="1">
       <c r="A152" s="35" t="s">
         <v>840</v>
       </c>
@@ -22911,7 +22922,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="85">
       <c r="A153" s="35" t="s">
         <v>840</v>
       </c>
@@ -22940,7 +22951,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16" customHeight="1">
       <c r="A154" s="35" t="s">
         <v>840</v>
       </c>
@@ -22969,7 +22980,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="85">
       <c r="A155" s="35" t="s">
         <v>840</v>
       </c>
@@ -22998,7 +23009,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="32" customHeight="1">
       <c r="A156" s="35" t="s">
         <v>840</v>
       </c>
@@ -23027,7 +23038,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="68">
       <c r="A157" s="35" t="s">
         <v>840</v>
       </c>
@@ -23056,7 +23067,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="32" customHeight="1">
       <c r="A158" s="35" t="s">
         <v>840</v>
       </c>
@@ -23085,7 +23096,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="68">
       <c r="A159" s="35" t="s">
         <v>840</v>
       </c>
@@ -23114,7 +23125,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="32" customHeight="1">
       <c r="A160" s="35" t="s">
         <v>840</v>
       </c>
@@ -23143,7 +23154,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="68">
       <c r="A161" s="35" t="s">
         <v>840</v>
       </c>
@@ -23172,7 +23183,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="16" customHeight="1">
       <c r="A162" s="35" t="s">
         <v>840</v>
       </c>
@@ -23201,7 +23212,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="68">
       <c r="A163" s="35" t="s">
         <v>840</v>
       </c>
@@ -23230,7 +23241,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="32" customHeight="1">
       <c r="A164" s="35" t="s">
         <v>840</v>
       </c>
@@ -23259,7 +23270,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="68">
       <c r="A165" s="35" t="s">
         <v>840</v>
       </c>
@@ -23288,7 +23299,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="48" customHeight="1">
       <c r="A166" s="35" t="s">
         <v>840</v>
       </c>
@@ -23317,7 +23328,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="68">
       <c r="A167" s="35" t="s">
         <v>840</v>
       </c>
@@ -23346,7 +23357,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="48" customHeight="1">
       <c r="A168" s="35" t="s">
         <v>840</v>
       </c>
@@ -23375,7 +23386,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="68">
       <c r="A169" s="35" t="s">
         <v>840</v>
       </c>
@@ -23404,7 +23415,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="32" customHeight="1">
       <c r="A170" s="35" t="s">
         <v>840</v>
       </c>
@@ -23433,7 +23444,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="68">
       <c r="A171" s="35" t="s">
         <v>840</v>
       </c>
@@ -23462,7 +23473,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="32" customHeight="1">
       <c r="A172" s="35" t="s">
         <v>840</v>
       </c>
@@ -23491,7 +23502,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="68">
       <c r="A173" s="35" t="s">
         <v>840</v>
       </c>
@@ -23520,7 +23531,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16" customHeight="1">
       <c r="A174" s="35" t="s">
         <v>840</v>
       </c>
@@ -23549,7 +23560,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="68">
       <c r="A175" s="35" t="s">
         <v>840</v>
       </c>
@@ -23578,7 +23589,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="16" customHeight="1">
       <c r="A176" s="35" t="s">
         <v>840</v>
       </c>
@@ -23607,7 +23618,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="68">
       <c r="A177" s="35" t="s">
         <v>840</v>
       </c>
@@ -23636,7 +23647,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="96" customHeight="1">
       <c r="A178" s="35" t="s">
         <v>840</v>
       </c>
@@ -23665,7 +23676,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="68">
       <c r="A179" s="35" t="s">
         <v>840</v>
       </c>
@@ -23694,7 +23705,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="32" customHeight="1">
       <c r="A180" s="35" t="s">
         <v>840</v>
       </c>
@@ -23723,7 +23734,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="68">
       <c r="A181" s="35" t="s">
         <v>840</v>
       </c>
@@ -23752,7 +23763,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="32" customHeight="1">
       <c r="A182" s="35" t="s">
         <v>840</v>
       </c>
@@ -23781,7 +23792,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="68">
       <c r="A183" s="35" t="s">
         <v>840</v>
       </c>
@@ -23810,7 +23821,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="32" customHeight="1">
       <c r="A184" s="35" t="s">
         <v>840</v>
       </c>
@@ -23839,7 +23850,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="102">
       <c r="A185" s="35" t="s">
         <v>840</v>
       </c>
@@ -23868,7 +23879,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="32" customHeight="1">
       <c r="A186" s="35" t="s">
         <v>840</v>
       </c>
@@ -23897,7 +23908,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="102">
       <c r="A187" s="35" t="s">
         <v>840</v>
       </c>
@@ -23926,7 +23937,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="32" customHeight="1">
       <c r="A188" s="35" t="s">
         <v>840</v>
       </c>
@@ -23955,7 +23966,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="102">
       <c r="A189" s="35" t="s">
         <v>840</v>
       </c>
@@ -23984,7 +23995,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="32" customHeight="1">
       <c r="A190" s="35" t="s">
         <v>840</v>
       </c>
@@ -24013,7 +24024,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="68">
       <c r="A191" s="35" t="s">
         <v>840</v>
       </c>
@@ -24042,7 +24053,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="96" customHeight="1">
       <c r="A192" s="35" t="s">
         <v>840</v>
       </c>
@@ -24071,7 +24082,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="68">
       <c r="A193" s="35" t="s">
         <v>840</v>
       </c>
@@ -24100,7 +24111,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="32" customHeight="1">
       <c r="A194" s="35" t="s">
         <v>840</v>
       </c>
@@ -24129,7 +24140,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="68">
       <c r="A195" s="35" t="s">
         <v>840</v>
       </c>
@@ -24158,7 +24169,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="32" customHeight="1">
       <c r="A196" s="35" t="s">
         <v>840</v>
       </c>
@@ -24187,7 +24198,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="68">
       <c r="A197" s="35" t="s">
         <v>840</v>
       </c>
@@ -24216,7 +24227,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="32" customHeight="1">
       <c r="A198" s="35" t="s">
         <v>840</v>
       </c>
@@ -24245,7 +24256,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="68">
       <c r="A199" s="35" t="s">
         <v>840</v>
       </c>
@@ -24274,7 +24285,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="32" customHeight="1">
       <c r="A200" s="35" t="s">
         <v>840</v>
       </c>
@@ -24303,7 +24314,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="68">
       <c r="A201" s="35" t="s">
         <v>840</v>
       </c>
@@ -24332,7 +24343,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="32" customHeight="1">
       <c r="A202" s="35" t="s">
         <v>840</v>
       </c>
@@ -24361,7 +24372,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="68">
       <c r="A203" s="35" t="s">
         <v>840</v>
       </c>
@@ -24390,7 +24401,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="32" customHeight="1">
       <c r="A204" s="35" t="s">
         <v>840</v>
       </c>
@@ -24419,7 +24430,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="68">
       <c r="A205" s="35" t="s">
         <v>840</v>
       </c>
@@ -24448,7 +24459,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="80" customHeight="1">
       <c r="A206" s="35" t="s">
         <v>840</v>
       </c>
@@ -24477,7 +24488,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="68">
       <c r="A207" s="35" t="s">
         <v>840</v>
       </c>
@@ -24506,7 +24517,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="32" customHeight="1">
       <c r="A208" s="35" t="s">
         <v>840</v>
       </c>
@@ -24535,7 +24546,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="68">
       <c r="A209" s="35" t="s">
         <v>840</v>
       </c>
@@ -24564,7 +24575,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16" customHeight="1">
       <c r="A210" s="35" t="s">
         <v>840</v>
       </c>
@@ -24593,7 +24604,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="68">
       <c r="A211" s="35" t="s">
         <v>840</v>
       </c>
@@ -24622,7 +24633,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="32" customHeight="1">
       <c r="A212" s="35" t="s">
         <v>840</v>
       </c>
@@ -24651,7 +24662,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="68">
       <c r="A213" s="35" t="s">
         <v>840</v>
       </c>
@@ -24680,7 +24691,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="32" customHeight="1">
       <c r="A214" s="35" t="s">
         <v>840</v>
       </c>
@@ -24709,7 +24720,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="68">
       <c r="A215" s="35" t="s">
         <v>840</v>
       </c>
@@ -24738,7 +24749,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="32" customHeight="1">
       <c r="A216" s="35" t="s">
         <v>840</v>
       </c>
@@ -24767,7 +24778,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="68">
       <c r="A217" s="35" t="s">
         <v>840</v>
       </c>
@@ -24796,7 +24807,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="32" customHeight="1">
       <c r="A218" s="35" t="s">
         <v>840</v>
       </c>
@@ -24825,7 +24836,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="68">
       <c r="A219" s="35" t="s">
         <v>840</v>
       </c>
@@ -24854,7 +24865,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="80" customHeight="1">
       <c r="A220" s="35" t="s">
         <v>840</v>
       </c>
@@ -24883,7 +24894,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="68">
       <c r="A221" s="35" t="s">
         <v>840</v>
       </c>
@@ -24912,7 +24923,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="32" customHeight="1">
       <c r="A222" s="35" t="s">
         <v>840</v>
       </c>
@@ -24941,7 +24952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="68">
       <c r="A223" s="35" t="s">
         <v>840</v>
       </c>
@@ -24970,7 +24981,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="32" customHeight="1">
       <c r="A224" s="35" t="s">
         <v>840</v>
       </c>
@@ -24999,7 +25010,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="68">
       <c r="A225" s="35" t="s">
         <v>840</v>
       </c>
@@ -25028,7 +25039,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="16" customHeight="1">
       <c r="A226" s="35" t="s">
         <v>840</v>
       </c>
@@ -25057,7 +25068,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="51">
       <c r="A227" s="35" t="s">
         <v>840</v>
       </c>
@@ -25086,7 +25097,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="32" customHeight="1">
       <c r="A228" s="35" t="s">
         <v>840</v>
       </c>
@@ -25115,7 +25126,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="51">
       <c r="A229" s="35" t="s">
         <v>840</v>
       </c>
@@ -25144,7 +25155,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="16" customHeight="1">
       <c r="A230" s="35" t="s">
         <v>840</v>
       </c>
@@ -25173,7 +25184,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="51">
       <c r="A231" s="35" t="s">
         <v>840</v>
       </c>
@@ -25202,7 +25213,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="32" customHeight="1">
       <c r="A232" s="35" t="s">
         <v>840</v>
       </c>
@@ -25231,7 +25242,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="51">
       <c r="A233" s="35" t="s">
         <v>840</v>
       </c>
@@ -25260,7 +25271,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="32" customHeight="1">
       <c r="A234" s="35" t="s">
         <v>840</v>
       </c>
@@ -25289,7 +25300,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="51">
       <c r="A235" s="35" t="s">
         <v>840</v>
       </c>
@@ -25318,7 +25329,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="32" customHeight="1">
       <c r="A236" s="35" t="s">
         <v>840</v>
       </c>
@@ -25347,7 +25358,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="51">
       <c r="A237" s="35" t="s">
         <v>840</v>
       </c>
@@ -25376,7 +25387,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="32" customHeight="1">
       <c r="A238" s="35" t="s">
         <v>840</v>
       </c>
@@ -25405,7 +25416,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="51">
       <c r="A239" s="35" t="s">
         <v>840</v>
       </c>
@@ -25434,7 +25445,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="32" customHeight="1">
       <c r="A240" s="35" t="s">
         <v>840</v>
       </c>
@@ -25461,7 +25472,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="34">
       <c r="A241" s="35" t="s">
         <v>840</v>
       </c>
@@ -25488,7 +25499,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="32" customHeight="1">
       <c r="A242" s="35" t="s">
         <v>840</v>
       </c>
@@ -25515,7 +25526,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="34">
       <c r="A243" s="35" t="s">
         <v>840</v>
       </c>
@@ -25542,7 +25553,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="32" customHeight="1">
       <c r="A244" s="35" t="s">
         <v>840</v>
       </c>
@@ -25569,7 +25580,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="34">
       <c r="A245" s="35" t="s">
         <v>840</v>
       </c>
@@ -25596,7 +25607,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="32" customHeight="1">
       <c r="A246" s="35" t="s">
         <v>840</v>
       </c>
@@ -25623,7 +25634,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="34">
       <c r="A247" s="35" t="s">
         <v>840</v>
       </c>
@@ -25652,7 +25663,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="34">
       <c r="A248" s="35" t="s">
         <v>840</v>
       </c>
@@ -25681,7 +25692,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="34">
       <c r="A249" s="35" t="s">
         <v>840</v>
       </c>
@@ -25710,7 +25721,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="34">
       <c r="A250" s="35" t="s">
         <v>840</v>
       </c>
@@ -25739,7 +25750,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="34">
       <c r="A251" s="35" t="s">
         <v>840</v>
       </c>
@@ -25768,7 +25779,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="34">
       <c r="A252" s="35" t="s">
         <v>840</v>
       </c>
@@ -25797,7 +25808,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="34">
       <c r="A253" s="35" t="s">
         <v>840</v>
       </c>
@@ -25826,7 +25837,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="34">
       <c r="A254" s="35" t="s">
         <v>840</v>
       </c>
@@ -25855,7 +25866,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="34">
       <c r="A255" s="35" t="s">
         <v>840</v>
       </c>
@@ -25884,7 +25895,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="34">
       <c r="A256" s="35" t="s">
         <v>840</v>
       </c>
@@ -25913,7 +25924,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="34">
       <c r="A257" s="35" t="s">
         <v>840</v>
       </c>
@@ -25942,7 +25953,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="34">
       <c r="A258" s="35" t="s">
         <v>840</v>
       </c>
@@ -25971,7 +25982,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="34">
       <c r="A259" s="35" t="s">
         <v>840</v>
       </c>
@@ -26000,7 +26011,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="34">
       <c r="A260" s="35" t="s">
         <v>840</v>
       </c>
@@ -26029,7 +26040,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="51">
       <c r="A261" s="31" t="s">
         <v>79</v>
       </c>
@@ -26056,7 +26067,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="51">
       <c r="A262" s="31" t="s">
         <v>79</v>
       </c>
@@ -26083,7 +26094,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="51">
       <c r="A263" s="31" t="s">
         <v>79</v>
       </c>
@@ -26110,7 +26121,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="51">
       <c r="A264" s="31" t="s">
         <v>79</v>
       </c>
@@ -26137,7 +26148,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="51">
       <c r="A265" s="31" t="s">
         <v>79</v>
       </c>
@@ -26164,7 +26175,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="51">
       <c r="A266" s="31" t="s">
         <v>79</v>
       </c>
@@ -26191,7 +26202,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="51">
       <c r="A267" s="31" t="s">
         <v>79</v>
       </c>
@@ -26218,7 +26229,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="51">
       <c r="A268" s="31" t="s">
         <v>79</v>
       </c>
@@ -26245,7 +26256,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="51">
       <c r="A269" s="31" t="s">
         <v>79</v>
       </c>
@@ -26272,7 +26283,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="51">
       <c r="A270" s="31" t="s">
         <v>79</v>
       </c>
@@ -26299,7 +26310,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="51">
       <c r="A271" s="31" t="s">
         <v>79</v>
       </c>
@@ -26326,7 +26337,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="51">
       <c r="A272" s="31" t="s">
         <v>79</v>
       </c>
@@ -26353,7 +26364,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="51">
       <c r="A273" s="31" t="s">
         <v>79</v>
       </c>
@@ -26380,7 +26391,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="51">
       <c r="A274" s="31" t="s">
         <v>79</v>
       </c>
@@ -26407,7 +26418,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="17">
       <c r="A275" s="31" t="s">
         <v>86</v>
       </c>
@@ -26434,7 +26445,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="128" customHeight="1">
       <c r="A276" s="31" t="s">
         <v>86</v>
       </c>
@@ -26461,7 +26472,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="64" customHeight="1">
       <c r="A277" s="31" t="s">
         <v>86</v>
       </c>
@@ -26488,7 +26499,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="32" customHeight="1">
       <c r="A278" s="31" t="s">
         <v>86</v>
       </c>
@@ -26515,7 +26526,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="17">
       <c r="A279" s="31" t="s">
         <v>86</v>
       </c>
@@ -26542,7 +26553,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="32" customHeight="1">
       <c r="A280" s="31" t="s">
         <v>86</v>
       </c>
@@ -26569,7 +26580,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="34">
       <c r="A281" s="31" t="s">
         <v>86</v>
       </c>
@@ -26596,7 +26607,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="32" customHeight="1">
       <c r="A282" s="31" t="s">
         <v>88</v>
       </c>
@@ -26623,7 +26634,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="17">
       <c r="A283" s="31" t="s">
         <v>88</v>
       </c>
@@ -26650,7 +26661,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="32" customHeight="1">
       <c r="A284" s="31" t="s">
         <v>88</v>
       </c>
@@ -26677,7 +26688,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="34">
       <c r="A285" s="31" t="s">
         <v>88</v>
       </c>
@@ -26704,7 +26715,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="32" customHeight="1">
       <c r="A286" s="31" t="s">
         <v>88</v>
       </c>
@@ -26731,7 +26742,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="34">
       <c r="A287" s="31" t="s">
         <v>88</v>
       </c>
@@ -26758,7 +26769,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="32" customHeight="1">
       <c r="A288" s="31" t="s">
         <v>88</v>
       </c>
@@ -26785,7 +26796,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="34">
       <c r="A289" s="31" t="s">
         <v>88</v>
       </c>
@@ -26808,7 +26819,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="80" customHeight="1">
       <c r="A290" s="31" t="s">
         <v>88</v>
       </c>
@@ -26832,7 +26843,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="34">
       <c r="A291" s="31" t="s">
         <v>88</v>
       </c>
@@ -26855,7 +26866,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="32" customHeight="1">
       <c r="A292" s="31" t="s">
         <v>88</v>
       </c>
@@ -26879,7 +26890,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="30">
       <c r="A293" s="31" t="s">
         <v>88</v>
       </c>
@@ -26903,7 +26914,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="32" customHeight="1">
       <c r="A294" s="31" t="s">
         <v>88</v>
       </c>
@@ -26927,7 +26938,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="34">
       <c r="A295" s="31" t="s">
         <v>88</v>
       </c>
@@ -26950,7 +26961,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="16" customHeight="1">
       <c r="A296" s="31" t="s">
         <v>88</v>
       </c>
@@ -26974,7 +26985,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="34">
       <c r="A297" s="31" t="s">
         <v>88</v>
       </c>
@@ -26997,7 +27008,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="32" customHeight="1">
       <c r="A298" s="31" t="s">
         <v>88</v>
       </c>
@@ -27020,7 +27031,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="30">
       <c r="A299" s="31" t="s">
         <v>88</v>
       </c>
@@ -27044,7 +27055,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="32" customHeight="1">
       <c r="A300" s="31" t="s">
         <v>88</v>
       </c>
@@ -27067,7 +27078,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="30">
       <c r="A301" s="31" t="s">
         <v>88</v>
       </c>
@@ -27091,7 +27102,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="32" customHeight="1">
       <c r="A302" s="31" t="s">
         <v>88</v>
       </c>
@@ -27114,7 +27125,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="51">
       <c r="A303" s="31" t="s">
         <v>88</v>
       </c>
@@ -27140,7 +27151,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="32" customHeight="1">
       <c r="A304" s="31" t="s">
         <v>88</v>
       </c>
@@ -27166,7 +27177,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="34">
       <c r="A305" s="31" t="s">
         <v>88</v>
       </c>
@@ -27192,7 +27203,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="32" customHeight="1">
       <c r="A306" s="31" t="s">
         <v>88</v>
       </c>
@@ -27218,7 +27229,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="34">
       <c r="A307" s="31" t="s">
         <v>88</v>
       </c>
@@ -27244,7 +27255,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="32" customHeight="1">
       <c r="A308" s="31" t="s">
         <v>88</v>
       </c>
@@ -27270,7 +27281,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="51">
       <c r="A309" s="31" t="s">
         <v>88</v>
       </c>
@@ -27296,7 +27307,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="16" customHeight="1">
       <c r="A310" s="31" t="s">
         <v>88</v>
       </c>
@@ -27322,7 +27333,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="34">
       <c r="A311" s="31" t="s">
         <v>88</v>
       </c>
@@ -27348,7 +27359,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="32" customHeight="1">
       <c r="A312" s="31" t="s">
         <v>88</v>
       </c>
@@ -27374,7 +27385,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="34">
       <c r="A313" s="31" t="s">
         <v>88</v>
       </c>
@@ -27400,7 +27411,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="32" customHeight="1">
       <c r="A314" s="31" t="s">
         <v>88</v>
       </c>
@@ -27426,7 +27437,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="34">
       <c r="A315" s="31" t="s">
         <v>88</v>
       </c>
@@ -27452,7 +27463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="32" customHeight="1">
       <c r="A316" s="31" t="s">
         <v>88</v>
       </c>
@@ -27478,7 +27489,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="34">
       <c r="A317" s="31" t="s">
         <v>88</v>
       </c>
@@ -27504,7 +27515,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="16" customHeight="1">
       <c r="A318" s="31" t="s">
         <v>88</v>
       </c>
@@ -27530,7 +27541,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="51">
       <c r="A319" s="31" t="s">
         <v>88</v>
       </c>
@@ -27556,7 +27567,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="16" customHeight="1">
       <c r="A320" s="31" t="s">
         <v>88</v>
       </c>
@@ -27582,7 +27593,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="51">
       <c r="A321" s="31" t="s">
         <v>88</v>
       </c>
@@ -27608,7 +27619,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="16" customHeight="1">
       <c r="A322" s="35" t="s">
         <v>783</v>
       </c>
@@ -27634,7 +27645,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="34">
       <c r="A323" s="31" t="s">
         <v>88</v>
       </c>
@@ -27660,7 +27671,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="16" customHeight="1">
       <c r="A324" s="35" t="s">
         <v>783</v>
       </c>
@@ -27686,7 +27697,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="34">
       <c r="A325" s="35" t="s">
         <v>783</v>
       </c>
@@ -27712,7 +27723,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="32" customHeight="1">
       <c r="A326" s="31" t="s">
         <v>88</v>
       </c>
@@ -27738,7 +27749,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="34">
       <c r="A327" s="31" t="s">
         <v>88</v>
       </c>
@@ -27764,7 +27775,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="16" customHeight="1">
       <c r="A328" s="35" t="s">
         <v>783</v>
       </c>
@@ -27790,7 +27801,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="34">
       <c r="A329" s="35" t="s">
         <v>783</v>
       </c>
@@ -27816,7 +27827,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="32" customHeight="1">
       <c r="A330" s="35" t="s">
         <v>783</v>
       </c>
@@ -27842,7 +27853,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="34">
       <c r="A331" s="31" t="s">
         <v>88</v>
       </c>
@@ -27868,7 +27879,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="32" customHeight="1">
       <c r="A332" s="31" t="s">
         <v>88</v>
       </c>
@@ -27894,7 +27905,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="45">
       <c r="A333" s="31" t="s">
         <v>88</v>
       </c>
@@ -27920,7 +27931,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="16" customHeight="1">
       <c r="A334" s="35" t="s">
         <v>783</v>
       </c>
@@ -27946,7 +27957,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="34">
       <c r="A335" s="35" t="s">
         <v>783</v>
       </c>
@@ -27972,7 +27983,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="32" customHeight="1">
       <c r="A336" s="35" t="s">
         <v>783</v>
       </c>
@@ -27998,7 +28009,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="34">
       <c r="A337" s="31" t="s">
         <v>88</v>
       </c>
@@ -28024,7 +28035,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" customHeight="1">
       <c r="A338" s="35" t="s">
         <v>783</v>
       </c>
@@ -28050,7 +28061,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="34">
       <c r="A339" s="35" t="s">
         <v>783</v>
       </c>
@@ -28076,7 +28087,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="32" customHeight="1">
       <c r="A340" s="35" t="s">
         <v>783</v>
       </c>
@@ -28102,7 +28113,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="51">
       <c r="A341" s="35" t="s">
         <v>783</v>
       </c>
@@ -28128,8 +28139,13 @@
         <v>775</v>
       </c>
     </row>
+    <row r="343" spans="1:8" ht="17">
+      <c r="D343" s="35" t="s">
+        <v>877</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
